--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55358A80-9733-4201-ABB0-96BBC3062BB8}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E32D0A-14F8-475A-9F64-E9BD29EB4627}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>financial year ended 31 March 2020</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>SWD</t>
+  </si>
+  <si>
+    <t>boekjaar loopt anders als kalenderjaar</t>
   </si>
 </sst>
 </file>
@@ -618,9 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F1F0C-0F64-4101-9A89-7B1897C91153}">
-  <dimension ref="A2:E24"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -628,19 +633,20 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2019</v>
       </c>
@@ -653,8 +659,11 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -666,7 +675,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -676,7 +685,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -692,7 +701,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -703,7 +712,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -715,7 +724,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -727,7 +736,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -742,7 +751,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -756,7 +765,7 @@
         <v>3.1592414240729661E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E32D0A-14F8-475A-9F64-E9BD29EB4627}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BD4581B-D61F-469D-9F3E-F626DB1D09DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
+    <workbookView xWindow="31860" yWindow="3225" windowWidth="17220" windowHeight="15555" activeTab="1" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="SWRD" sheetId="2" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>financial year ended 31 March 2020</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>boekjaar loopt anders als kalenderjaar</t>
+  </si>
+  <si>
+    <t>ZPRX (europe)</t>
+  </si>
+  <si>
+    <t>ZPRV (USA)</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F1F0C-0F64-4101-9A89-7B1897C91153}">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -835,175 +841,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F007D5-EEB2-41AB-8623-15D282634442}">
-  <dimension ref="B2:D31"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="4">
+        <v>67746017</v>
+      </c>
+      <c r="D5" s="4">
         <v>14805526</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>26741220</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <f>AVERAGE(C5:D5)</f>
+        <v>41275771.5</v>
+      </c>
+      <c r="D6" s="4">
+        <f>AVERAGE(D5:E5)</f>
         <v>20773373</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
+      <c r="C10" s="4">
+        <v>87893</v>
+      </c>
+      <c r="D10" s="4">
         <v>71756</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4">
         <f>C10/C11</f>
+        <v>29297666.666666668</v>
+      </c>
+      <c r="D12" s="4">
+        <f>D10/D11</f>
         <v>23918666.666666668</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="4">
+        <v>97623</v>
+      </c>
+      <c r="D14" s="4">
         <v>22862</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="5">
         <f>C14/C12</f>
+        <v>3.3321083590274539E-3</v>
+      </c>
+      <c r="D16" s="5">
+        <f>D14/D12</f>
         <v>9.5582250961592059E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="1">
         <v>2020</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>1</v>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="4">
+        <v>209368911</v>
+      </c>
+      <c r="D21" s="4">
         <v>21197272</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>35918224</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
         <f>AVERAGE(C21:D21)</f>
+        <v>115283091.5</v>
+      </c>
+      <c r="D22" s="4">
+        <f>AVERAGE(D21:E21)</f>
         <v>28557748</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D24" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
+        <v>249596</v>
+      </c>
+      <c r="D25" s="4">
         <v>98531</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="4">
         <f>C25/C26</f>
+        <v>83198666.666666672</v>
+      </c>
+      <c r="D27" s="4">
+        <f>D25/D26</f>
         <v>32843666.666666664</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
+        <v>12944</v>
+      </c>
+      <c r="D29" s="4">
         <v>3301</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="5">
         <f>C29/C27</f>
+        <v>1.5557941633680025E-4</v>
+      </c>
+      <c r="D31" s="5">
+        <f>D29/D27</f>
         <v>1.0050643959769008E-4</v>
       </c>
     </row>

--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BD4581B-D61F-469D-9F3E-F626DB1D09DD}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04EF31FD-EFF1-4889-94ED-7EAF7B7F9564}"/>
   <bookViews>
-    <workbookView xWindow="31860" yWindow="3225" windowWidth="17220" windowHeight="15555" activeTab="1" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="SWRD" sheetId="2" r:id="rId1"/>
-    <sheet name="ZPRV-ZPRX" sheetId="1" r:id="rId2"/>
-    <sheet name="TrackingDiff" sheetId="3" r:id="rId3"/>
+    <sheet name="ZPRV" sheetId="1" r:id="rId2"/>
+    <sheet name="ZPRX" sheetId="5" r:id="rId3"/>
+    <sheet name="TrackingDiff" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,17 +95,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>financial year ended 31 March 2020</t>
   </si>
   <si>
-    <t>ZPRV</t>
-  </si>
-  <si>
-    <t>AUM</t>
-  </si>
-  <si>
     <t>TER</t>
   </si>
   <si>
@@ -114,63 +109,24 @@
     <t>Transaction costs %</t>
   </si>
   <si>
-    <t>ZPRX</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Operating Expenses</t>
   </si>
   <si>
-    <t>Gemiddelde</t>
-  </si>
-  <si>
-    <t>Net asset value einde boekjaar</t>
-  </si>
-  <si>
     <t>Operating expense (TER)</t>
   </si>
   <si>
-    <t>TER gemeld</t>
-  </si>
-  <si>
-    <t>Gemiddeld vermogen</t>
-  </si>
-  <si>
     <t>Dividend income</t>
   </si>
   <si>
     <t>Taxation</t>
   </si>
   <si>
-    <t>Dividend lek</t>
-  </si>
-  <si>
-    <t>% dividend lek</t>
-  </si>
-  <si>
-    <t>% transactie kosten</t>
-  </si>
-  <si>
-    <t>Kosten benadering verleden</t>
-  </si>
-  <si>
     <t>Tracking difference</t>
   </si>
   <si>
-    <t>Gat met kosten benadering</t>
-  </si>
-  <si>
-    <t>Schatting kosten toekomst</t>
-  </si>
-  <si>
     <t>SPDR MSCI World UCITS ETF</t>
   </si>
   <si>
-    <t>02-2019 gestart</t>
-  </si>
-  <si>
     <t>TD</t>
   </si>
   <si>
@@ -192,25 +148,83 @@
     <t>SWD</t>
   </si>
   <si>
-    <t>boekjaar loopt anders als kalenderjaar</t>
-  </si>
-  <si>
-    <t>ZPRX (europe)</t>
-  </si>
-  <si>
-    <t>ZPRV (USA)</t>
+    <t>bookyear differs from calendar year!</t>
+  </si>
+  <si>
+    <t>started 02-2019</t>
+  </si>
+  <si>
+    <t>Net asset value end of bookyear</t>
+  </si>
+  <si>
+    <t>Average AUM</t>
+  </si>
+  <si>
+    <t>Dividend leakge</t>
+  </si>
+  <si>
+    <t>% dividend leakage</t>
+  </si>
+  <si>
+    <t>% transaction costs</t>
+  </si>
+  <si>
+    <t>Costs in the past</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>SPDR MSCI USA Small Cap Value Weighted UCITS ETF (ZPRV)</t>
+  </si>
+  <si>
+    <t>02-2015 started</t>
+  </si>
+  <si>
+    <t>AUM end of bookyear</t>
+  </si>
+  <si>
+    <t>Foreign Withholding Tax</t>
+  </si>
+  <si>
+    <t>Dividend leakage</t>
+  </si>
+  <si>
+    <t>SPDR MSCI Europe Small Cap Value Weighted UCITS ETF (ZPRX)</t>
+  </si>
+  <si>
+    <t>% dividend</t>
+  </si>
+  <si>
+    <t>% dividend leakage costs</t>
+  </si>
+  <si>
+    <t>18% dividend leakage in the US? Should be 15%</t>
+  </si>
+  <si>
+    <t>Weird average UAM in 2018</t>
+  </si>
+  <si>
+    <t>Average costs in the past</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -267,12 +281,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,7 +310,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -310,12 +330,17 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,9 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F1F0C-0F64-4101-9A89-7B1897C91153}">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -643,13 +666,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,15 +686,15 @@
         <v>2021</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7">
         <v>318392294</v>
@@ -683,7 +706,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7">
@@ -693,7 +716,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>1.1999999999999999E-3</v>
@@ -709,7 +732,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7">
@@ -720,7 +743,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7">
         <v>1004942</v>
@@ -732,7 +755,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7">
         <v>135108</v>
@@ -744,7 +767,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" s="14">
         <f>B11/B10</f>
@@ -759,7 +782,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
         <f>C11/C8</f>
@@ -773,7 +796,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="7">
         <v>144398</v>
@@ -785,7 +808,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
         <f>C16/C8</f>
@@ -799,7 +822,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3">
         <f>E7+E13+E17</f>
@@ -808,7 +831,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" s="5">
         <f>TrackingDiff!F5/100</f>
@@ -817,7 +840,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3">
         <f>B20-B21</f>
@@ -825,13 +848,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5">
-        <f>E7+0.02%</f>
-        <v>1.4E-3</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,239 +859,395 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F007D5-EEB2-41AB-8623-15D282634442}">
-  <dimension ref="B2:E31"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>33</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>2016</v>
       </c>
       <c r="C4" s="1">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D4" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E4" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="F4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16620593</v>
+      </c>
+      <c r="C5" s="4">
+        <v>77862695</v>
+      </c>
+      <c r="D5" s="4">
+        <v>107364502</v>
+      </c>
+      <c r="E5" s="4">
+        <v>35992810</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21266136</v>
+      </c>
+      <c r="G5" s="4">
+        <v>209666872</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>227317</v>
+      </c>
+      <c r="C7" s="4">
+        <v>130404</v>
+      </c>
+      <c r="D7" s="4">
+        <v>218199</v>
+      </c>
+      <c r="E7" s="4">
+        <v>235844</v>
+      </c>
+      <c r="F7" s="4">
+        <v>98531</v>
+      </c>
+      <c r="G7" s="4">
+        <v>249596</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8" si="0">B7/B6</f>
+        <v>75772333.333333328</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8" si="1">C7/C6</f>
+        <v>43468000</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8" si="2">D7/D6</f>
+        <v>72733000</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ref="E8" si="3">E7/E6</f>
+        <v>78614666.666666672</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8" si="4">F7/F6</f>
+        <v>32843666.666666664</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8" si="5">G7/G6</f>
+        <v>83198666.666666672</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1395145</v>
+      </c>
+      <c r="C10" s="4">
+        <v>808393</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1343927</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1458483</v>
+      </c>
+      <c r="F10" s="4">
+        <v>693589</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1671661</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4">
+        <v>278674</v>
+      </c>
+      <c r="C11" s="4">
+        <v>147242</v>
+      </c>
+      <c r="D11" s="4">
+        <v>241813</v>
+      </c>
+      <c r="E11" s="4">
+        <v>271338</v>
+      </c>
+      <c r="F11" s="4">
+        <v>115918</v>
+      </c>
+      <c r="G11" s="4">
+        <v>296366</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="19">
+        <f>B11/B10</f>
+        <v>0.19974554616186849</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" ref="C12:G12" si="6">C11/C10</f>
+        <v>0.18214160686695705</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="6"/>
+        <v>0.17993015989707775</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="6"/>
+        <v>0.1860412497094584</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="6"/>
+        <v>0.16712779470262648</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="6"/>
+        <v>0.17728833776704728</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12:I17" si="7">AVERAGE(B12:G12)</f>
+        <v>0.18204578251750592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B10/B8</f>
+        <v>1.8412327278646119E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:G13" si="8">C10/C8</f>
+        <v>1.859742799300635E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="8"/>
+        <v>1.8477541143634937E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="8"/>
+        <v>1.8552301521344617E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="8"/>
+        <v>2.1117891830997354E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="8"/>
+        <v>2.0092401320533981E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="7"/>
+        <v>1.9208315181360559E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B11/B8</f>
+        <v>3.6777803683842392E-3</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:G14" si="9">C11/C8</f>
+        <v>3.3873654182387043E-3</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="9"/>
+        <v>3.3246669324790675E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="9"/>
+        <v>3.4514933600176385E-3</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5293866904831986E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5621484318658953E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="7"/>
+        <v>3.4888068669114577E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
-        <v>67746017</v>
-      </c>
-      <c r="D5" s="4">
-        <v>14805526</v>
-      </c>
-      <c r="E5" s="4">
-        <v>26741220</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="4">
-        <f>AVERAGE(C5:D5)</f>
-        <v>41275771.5</v>
-      </c>
-      <c r="D6" s="4">
-        <f>AVERAGE(D5:E5)</f>
-        <v>20773373</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>87893</v>
-      </c>
-      <c r="D10" s="4">
-        <v>71756</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B16" s="4">
+        <v>20213</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9721</v>
+      </c>
+      <c r="D16" s="4">
+        <v>13128</v>
+      </c>
+      <c r="E16" s="4">
+        <v>14984</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3301</v>
+      </c>
+      <c r="G16" s="4">
+        <v>12944</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
-        <f>C10/C11</f>
-        <v>29297666.666666668</v>
-      </c>
-      <c r="D12" s="4">
-        <f>D10/D11</f>
-        <v>23918666.666666668</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>97623</v>
-      </c>
-      <c r="D14" s="4">
-        <v>22862</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5">
-        <f>C14/C12</f>
-        <v>3.3321083590274539E-3</v>
-      </c>
-      <c r="D16" s="5">
-        <f>D14/D12</f>
-        <v>9.5582250961592059E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>209368911</v>
-      </c>
-      <c r="D21" s="4">
-        <v>21197272</v>
-      </c>
-      <c r="E21" s="4">
-        <v>35918224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="4">
-        <f>AVERAGE(C21:D21)</f>
-        <v>115283091.5</v>
-      </c>
-      <c r="D22" s="4">
-        <f>AVERAGE(D21:E21)</f>
-        <v>28557748</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>249596</v>
-      </c>
-      <c r="D25" s="4">
-        <v>98531</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4">
-        <f>C25/C26</f>
-        <v>83198666.666666672</v>
-      </c>
-      <c r="D27" s="4">
-        <f>D25/D26</f>
-        <v>32843666.666666664</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4">
-        <v>12944</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3301</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="5">
-        <f>C29/C27</f>
+      <c r="B17" s="5">
+        <f>B16/B8</f>
+        <v>2.6675963522305855E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:G17" si="10">C16/C8</f>
+        <v>2.236357780436183E-4</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="10"/>
+        <v>1.8049578595685588E-4</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="10"/>
+        <v>1.9060056647614523E-4</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="10"/>
+        <v>1.0050643959769008E-4</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="10"/>
         <v>1.5557941633680025E-4</v>
       </c>
-      <c r="D31" s="5">
-        <f>D29/D27</f>
-        <v>1.0050643959769008E-4</v>
+      <c r="I17" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8626293693902804E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3">
+        <f>G6+I14+I17</f>
+        <v>6.6750698038504849E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1083,6 +1257,412 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D68207-D1C4-481F-BB33-4641CBED083B}">
+  <dimension ref="A2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>29596852</v>
+      </c>
+      <c r="C5" s="4">
+        <v>58263370</v>
+      </c>
+      <c r="D5" s="4">
+        <v>73739448</v>
+      </c>
+      <c r="E5" s="4">
+        <v>27052766</v>
+      </c>
+      <c r="F5" s="4">
+        <v>14995894</v>
+      </c>
+      <c r="G5" s="4">
+        <v>67941530</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>260185</v>
+      </c>
+      <c r="C7" s="4">
+        <v>111283</v>
+      </c>
+      <c r="D7" s="4">
+        <v>179584</v>
+      </c>
+      <c r="E7" s="4">
+        <v>162524</v>
+      </c>
+      <c r="F7" s="4">
+        <v>71756</v>
+      </c>
+      <c r="G7" s="4">
+        <v>87893</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8" si="0">B7/B6</f>
+        <v>86728333.333333328</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8" si="1">C7/C6</f>
+        <v>37094333.333333336</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8" si="2">D7/D6</f>
+        <v>59861333.333333328</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ref="E8" si="3">E7/E6</f>
+        <v>54174666.666666664</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8" si="4">F7/F6</f>
+        <v>23918666.666666668</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8" si="5">G7/G6</f>
+        <v>29297666.666666668</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2327973</v>
+      </c>
+      <c r="C10" s="4">
+        <v>853605</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1507051</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1857553</v>
+      </c>
+      <c r="F10" s="4">
+        <v>734983</v>
+      </c>
+      <c r="G10" s="4">
+        <v>491078</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4">
+        <v>137864</v>
+      </c>
+      <c r="C11" s="4">
+        <v>53100</v>
+      </c>
+      <c r="D11" s="4">
+        <v>97184</v>
+      </c>
+      <c r="E11" s="4">
+        <v>133506</v>
+      </c>
+      <c r="F11" s="4">
+        <v>54518</v>
+      </c>
+      <c r="G11" s="4">
+        <v>67508</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B11/B10</f>
+        <v>5.9220618108543358E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ref="C12:G12" si="6">C11/C10</f>
+        <v>6.2206758395276507E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="6"/>
+        <v>6.4486205178192382E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="6"/>
+        <v>7.1871973504928258E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="6"/>
+        <v>7.4175865292122403E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="6"/>
+        <v>0.13746899677851585</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5">
+        <f>AVERAGE(B12:G12)</f>
+        <v>7.8238402876263116E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B10/B8</f>
+        <v>2.6842127716816881E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:G13" si="7">C10/C8</f>
+        <v>2.3011735844648329E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5175700507840345E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="7"/>
+        <v>3.4288222047205337E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="7"/>
+        <v>3.0728426891131054E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="7"/>
+        <v>1.6761676128929492E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:I17" si="8">AVERAGE(B13:G13)</f>
+        <v>2.613464818942857E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B11/B8</f>
+        <v>1.5896073947383592E-3</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:G14" si="9">C11/C8</f>
+        <v>1.4314854919439627E-3</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6234853884533145E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="9"/>
+        <v>2.464362186507839E-3</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="9"/>
+        <v>2.2793076537153687E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="9"/>
+        <v>2.3042108017703343E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="8"/>
+        <v>1.9487431528548628E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>131088</v>
+      </c>
+      <c r="C16" s="4">
+        <v>102865</v>
+      </c>
+      <c r="D16" s="4">
+        <v>102831</v>
+      </c>
+      <c r="E16" s="4">
+        <v>41287</v>
+      </c>
+      <c r="F16" s="4">
+        <v>22862</v>
+      </c>
+      <c r="G16" s="4">
+        <v>97623</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" ref="B17:E17" si="10">B16/B8</f>
+        <v>1.511478371158983E-3</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="10"/>
+        <v>2.773065068339279E-3</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="10"/>
+        <v>1.7178200730577336E-3</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="10"/>
+        <v>7.621089808274471E-4</v>
+      </c>
+      <c r="F17" s="5">
+        <f>F16/F8</f>
+        <v>9.5582250961592059E-4</v>
+      </c>
+      <c r="G17" s="5">
+        <f>G16/G8</f>
+        <v>3.3321083590274539E-3</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <f t="shared" si="8"/>
+        <v>1.8420672270044694E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3">
+        <f>G6+I14+I17</f>
+        <v>6.7908103798593319E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458D1CFB-D8C8-403E-BC0B-3F57B3C7A83B}">
   <dimension ref="B1:G6"/>
   <sheetViews>
@@ -1102,15 +1682,15 @@
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11">
@@ -1122,7 +1702,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
@@ -1134,7 +1714,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="11">
@@ -1146,7 +1726,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11">
@@ -1162,7 +1742,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11">

--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04EF31FD-EFF1-4889-94ED-7EAF7B7F9564}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821526B1-7AF3-4202-8F29-748E943D8D42}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
+    <workbookView xWindow="11700" yWindow="5565" windowWidth="15330" windowHeight="15435" activeTab="2" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="SWRD" sheetId="2" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -334,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -861,7 +861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F007D5-EEB2-41AB-8623-15D282634442}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1260,7 +1262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D68207-D1C4-481F-BB33-4641CBED083B}">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821526B1-7AF3-4202-8F29-748E943D8D42}"/>
+  <xr:revisionPtr revIDLastSave="482" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17FFB09-2574-4C70-A01E-92C37F174552}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="5565" windowWidth="15330" windowHeight="15435" activeTab="2" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
+    <workbookView xWindow="11520" yWindow="3300" windowWidth="15330" windowHeight="15435" activeTab="1" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="SWRD" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>financial year ended 31 March 2020</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>Average costs in the past</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>financial year ended 31 March 2021</t>
   </si>
 </sst>
 </file>
@@ -859,11 +865,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F007D5-EEB2-41AB-8623-15D282634442}">
-  <dimension ref="A2:K19"/>
+  <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -923,7 +927,7 @@
         <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1243,11 +1247,19 @@
         <v>1.8626293693902804E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.20169999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <f>G6+I14+I17</f>
         <v>6.6750698038504849E-3</v>
       </c>
@@ -1260,11 +1272,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D68207-D1C4-481F-BB33-4641CBED083B}">
-  <dimension ref="A2:K22"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1648,17 +1658,31 @@
         <v>1.8420672270044694E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5">
+        <v>0.35089999999999999</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <f>G6+I14+I17</f>
         <v>6.7908103798593319E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17FFB09-2574-4C70-A01E-92C37F174552}"/>
+  <xr:revisionPtr revIDLastSave="604" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5598D28-55F8-4611-ADB8-6183A0530CAD}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="3300" windowWidth="15330" windowHeight="15435" activeTab="1" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
+    <workbookView xWindow="8880" yWindow="3210" windowWidth="21915" windowHeight="16035" activeTab="2" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="SWRD" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{037CF0A5-8A77-4058-828B-8C964D69D56D}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{037CF0A5-8A77-4058-828B-8C964D69D56D}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D86604A5-7F37-43DE-A45A-81031088F21C}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D86604A5-7F37-43DE-A45A-81031088F21C}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>financial year ended 31 March 2020</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Vs net</t>
   </si>
   <si>
-    <t>SWD</t>
-  </si>
-  <si>
     <t>bookyear differs from calendar year!</t>
   </si>
   <si>
@@ -160,12 +157,6 @@
     <t>Average AUM</t>
   </si>
   <si>
-    <t>Dividend leakge</t>
-  </si>
-  <si>
-    <t>% dividend leakage</t>
-  </si>
-  <si>
     <t>% transaction costs</t>
   </si>
   <si>
@@ -214,23 +205,33 @@
     <t>Average costs in the past</t>
   </si>
   <si>
-    <t>Turnover</t>
-  </si>
-  <si>
     <t>financial year ended 31 March 2021</t>
+  </si>
+  <si>
+    <t>SWRD</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Copy/paste</t>
+  </si>
+  <si>
+    <t>Index turnover</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -316,7 +317,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,12 +342,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,7 +364,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -658,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F1F0C-0F64-4101-9A89-7B1897C91153}">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,22 +668,22 @@
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="3" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2019</v>
       </c>
@@ -691,16 +693,20 @@
       <c r="D4" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7">
         <v>318392294</v>
@@ -708,9 +714,15 @@
       <c r="C5" s="7">
         <v>129213578</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="6">
+        <v>743807270</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1444937436</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -718,9 +730,15 @@
       <c r="C6" s="7">
         <v>352819</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="6">
+        <v>453811</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1388227</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -730,24 +748,38 @@
       <c r="C7" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="E7" s="3">
-        <f>AVERAGE(B7:D7)</f>
         <v>1.1999999999999999E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <f>AVERAGE(B7:E7)</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7">
         <f>C6/C7</f>
         <v>294015833.33333337</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="7">
+        <f t="shared" ref="D8:E8" si="0">D6/D7</f>
+        <v>378175833.33333337</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>1156855833.3333335</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -757,9 +789,15 @@
       <c r="C10" s="7">
         <v>7032455</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="6">
+        <v>7304759</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20970311</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -769,11 +807,17 @@
       <c r="C11" s="7">
         <v>928867</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="6">
+        <v>976724</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2665046</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B12" s="14">
         <f>B11/B10</f>
@@ -783,24 +827,40 @@
         <f>C11/C10</f>
         <v>0.13208289281623559</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="14">
+        <f t="shared" ref="D12:E12" si="1">D11/D10</f>
+        <v>0.13371063987189721</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.12708662260659845</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <f>C11/C8</f>
         <v>3.1592414240729661E-3</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:E13" si="2">D11/D8</f>
+        <v>2.5827245262895785E-3</v>
+      </c>
       <c r="E13" s="3">
-        <f>AVERAGE(C13)</f>
-        <v>3.1592414240729661E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.3036975941254562E-3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <f>AVERAGE(B13:E13)</f>
+        <v>2.6818878481626673E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -810,52 +870,155 @@
       <c r="C16" s="7">
         <v>160137</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="6">
+        <v>196947</v>
+      </c>
+      <c r="E16" s="6">
+        <v>257179</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
         <f>C16/C8</f>
         <v>5.4465434117777092E-4</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17:E17" si="3">D16/D8</f>
+        <v>5.2078155884277815E-4</v>
+      </c>
       <c r="E17" s="3">
-        <f>AVERAGE(C17)</f>
-        <v>5.4465434117777092E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.2230859938612342E-4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <f>AVERAGE(B17:E17)</f>
+        <v>4.2924816646889083E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
-        <f>E7+E13+E17</f>
-        <v>4.903895765250737E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <f>G7+G13+G17</f>
+        <v>4.3111360146315583E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5">
-        <f>TrackingDiff!F5/100</f>
-        <v>6.6999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <f>TrackingDiff!G5/100</f>
+        <v>5.3000000000000026E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <f>B20-B21</f>
-        <v>-1.7961042347492623E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
+        <v>-9.8886398536844437E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1">
+        <f>C4</f>
+        <v>2020</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:E26" si="4">D4</f>
+        <v>2021</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>A7</f>
+        <v>TER</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
+        <f>C7</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D27" s="5">
+        <f>D7</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <f>E7</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>A13</f>
+        <v>% dividend leakage costs</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:E28" si="5">C13</f>
+        <v>3.1592414240729661E-3</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="5"/>
+        <v>2.5827245262895785E-3</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="5"/>
+        <v>2.3036975941254562E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>A17</f>
+        <v>% transaction costs</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:E29" si="6">C17</f>
+        <v>5.4465434117777092E-4</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="6"/>
+        <v>5.2078155884277815E-4</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="6"/>
+        <v>2.2230859938612342E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30:E30" si="7">SUM(C27:C29)</f>
+        <v>4.903895765250737E-3</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="7"/>
+        <v>4.3035060851323564E-3</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="7"/>
+        <v>3.7260061935115796E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -865,19 +1028,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F007D5-EEB2-41AB-8623-15D282634442}">
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="7" width="14.7109375" customWidth="1"/>
+    <col min="2" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -887,14 +1050,15 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -902,8 +1066,9 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2016</v>
@@ -923,16 +1088,19 @@
       <c r="G4" s="1">
         <v>2021</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>16620593</v>
@@ -952,11 +1120,14 @@
       <c r="G5" s="4">
         <v>209666872</v>
       </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>350309639</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -978,12 +1149,15 @@
       <c r="G6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1005,11 +1179,14 @@
       <c r="G7" s="4">
         <v>249596</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>852964</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" ref="B8" si="0">B7/B6</f>
@@ -1032,15 +1209,19 @@
         <v>32843666.666666664</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8" si="5">G7/G6</f>
+        <f t="shared" ref="G8:H8" si="5">G7/G6</f>
         <v>83198666.666666672</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <f t="shared" si="5"/>
+        <v>284321333.33333331</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1062,11 +1243,14 @@
       <c r="G10" s="4">
         <v>1671661</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>4896916</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>278674</v>
@@ -1086,18 +1270,21 @@
       <c r="G11" s="4">
         <v>296366</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <v>844450</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="19">
         <f>B11/B10</f>
         <v>0.19974554616186849</v>
       </c>
       <c r="C12" s="19">
-        <f t="shared" ref="C12:G12" si="6">C11/C10</f>
+        <f t="shared" ref="C12:H12" si="6">C11/C10</f>
         <v>0.18214160686695705</v>
       </c>
       <c r="D12" s="19">
@@ -1116,21 +1303,25 @@
         <f t="shared" si="6"/>
         <v>0.17728833776704728</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" ref="I12:I17" si="7">AVERAGE(B12:G12)</f>
+      <c r="H12" s="19">
+        <f t="shared" si="6"/>
+        <v>0.17244526963501108</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12:J17" si="7">AVERAGE(B12:G12)</f>
         <v>0.18204578251750592</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5">
         <f>B10/B8</f>
         <v>1.8412327278646119E-2</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13:G13" si="8">C10/C8</f>
+        <f t="shared" ref="C13:H13" si="8">C10/C8</f>
         <v>1.859742799300635E-2</v>
       </c>
       <c r="D13" s="5">
@@ -1149,21 +1340,25 @@
         <f t="shared" si="8"/>
         <v>2.0092401320533981E-2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="H13" s="5">
+        <f t="shared" si="8"/>
+        <v>1.7223174717807554E-2</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="7"/>
         <v>1.9208315181360559E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5">
         <f>B11/B8</f>
         <v>3.6777803683842392E-3</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:G14" si="9">C11/C8</f>
+        <f t="shared" ref="C14:H14" si="9">C11/C8</f>
         <v>3.3873654182387043E-3</v>
       </c>
       <c r="D14" s="5">
@@ -1182,15 +1377,19 @@
         <f t="shared" si="9"/>
         <v>3.5621484318658953E-3</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="7"/>
-        <v>3.4888068669114577E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="5">
+        <f t="shared" si="9"/>
+        <v>2.9700550081832294E-3</v>
+      </c>
+      <c r="J14" s="3">
+        <f>AVERAGE(B14:H14)</f>
+        <v>3.4146994585217108E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1212,56 +1411,234 @@
       <c r="G16" s="4">
         <v>12944</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="4">
+        <v>23210</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="20">
         <f>B16/B8</f>
         <v>2.6675963522305855E-4</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" ref="C17:G17" si="10">C16/C8</f>
+      <c r="C17" s="20">
+        <f t="shared" ref="C17:H17" si="10">C16/C8</f>
         <v>2.236357780436183E-4</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="20">
         <f t="shared" si="10"/>
         <v>1.8049578595685588E-4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="20">
         <f t="shared" si="10"/>
         <v>1.9060056647614523E-4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="20">
         <f t="shared" si="10"/>
         <v>1.0050643959769008E-4</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="20">
         <f t="shared" si="10"/>
         <v>1.5557941633680025E-4</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="7"/>
-        <v>1.8626293693902804E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="20">
+        <f t="shared" si="10"/>
+        <v>8.1632988027630719E-5</v>
+      </c>
+      <c r="J17" s="3">
+        <f>AVERAGE(B17:H17)</f>
+        <v>1.71315801380257E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3">
         <v>0.20169999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <v>0.28070000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
+        <f>H6+J14+J17</f>
+        <v>6.5860152599019686E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B4</f>
+        <v>2016</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:H25" si="11">C4</f>
+        <v>2017</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="11"/>
+        <v>2018</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="11"/>
+        <v>2019</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="11"/>
+        <v>2020</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="11"/>
+        <v>2021</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="11"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>A6</f>
+        <v>TER</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B6</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:H26" si="12">C6</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>A12</f>
+        <v>Dividend leakage</v>
+      </c>
+      <c r="B27" s="5">
+        <f>B14</f>
+        <v>3.6777803683842392E-3</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:H27" si="13">C14</f>
+        <v>3.3873654182387043E-3</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="13"/>
+        <v>3.3246669324790675E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="13"/>
+        <v>3.4514933600176385E-3</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="13"/>
+        <v>3.5293866904831986E-3</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="13"/>
+        <v>3.5621484318658953E-3</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9700550081832294E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>A16</f>
+        <v>Transaction costs</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B17</f>
+        <v>2.6675963522305855E-4</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:H28" si="14">C17</f>
+        <v>2.236357780436183E-4</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="14"/>
+        <v>1.8049578595685588E-4</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="14"/>
+        <v>1.9060056647614523E-4</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="14"/>
+        <v>1.0050643959769008E-4</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5557941633680025E-4</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="14"/>
+        <v>8.1632988027630719E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3">
-        <f>G6+I14+I17</f>
-        <v>6.6750698038504849E-3</v>
+      <c r="B29" s="3">
+        <f>SUM(B26:B28)</f>
+        <v>6.9445400036072975E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29:H29" si="15">SUM(C26:C28)</f>
+        <v>6.6110011962823229E-3</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.5051627184359237E-3</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.6420939264937836E-3</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.6298931300808883E-3</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.7177278482026962E-3</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.0516879962108604E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1272,20 +1649,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D68207-D1C4-481F-BB33-4641CBED083B}">
-  <dimension ref="A2:K23"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1295,13 +1672,14 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="16"/>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1311,8 +1689,9 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2016</v>
@@ -1332,17 +1711,20 @@
       <c r="G4" s="1">
         <v>2021</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="H4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>29596852</v>
@@ -1362,10 +1744,13 @@
       <c r="G5" s="4">
         <v>67941530</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>116321399</v>
+      </c>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1387,10 +1772,13 @@
       <c r="G6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1412,12 +1800,15 @@
       <c r="G7" s="4">
         <v>87893</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>322573</v>
+      </c>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" ref="B8" si="0">B7/B6</f>
@@ -1440,13 +1831,17 @@
         <v>23918666.666666668</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8" si="5">G7/G6</f>
+        <f t="shared" ref="G8:H8" si="5">G7/G6</f>
         <v>29297666.666666668</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <f t="shared" si="5"/>
+        <v>107524333.33333333</v>
+      </c>
       <c r="I8" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1468,12 +1863,15 @@
       <c r="G10" s="4">
         <v>491078</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>2567095</v>
+      </c>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>137864</v>
@@ -1493,19 +1891,22 @@
       <c r="G11" s="4">
         <v>67508</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>152942</v>
+      </c>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5">
         <f>B11/B10</f>
         <v>5.9220618108543358E-2</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ref="C12:G12" si="6">C11/C10</f>
+        <f t="shared" ref="C12:H12" si="6">C11/C10</f>
         <v>6.2206758395276507E-2</v>
       </c>
       <c r="D12" s="5">
@@ -1524,22 +1925,26 @@
         <f t="shared" si="6"/>
         <v>0.13746899677851585</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5">
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>5.9577849670541992E-2</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5">
         <f>AVERAGE(B12:G12)</f>
         <v>7.8238402876263116E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5">
         <f>B10/B8</f>
         <v>2.6842127716816881E-2</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13:G13" si="7">C10/C8</f>
+        <f t="shared" ref="C13:H13" si="7">C10/C8</f>
         <v>2.3011735844648329E-2</v>
       </c>
       <c r="D13" s="5">
@@ -1558,21 +1963,25 @@
         <f t="shared" si="7"/>
         <v>1.6761676128929492E-2</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" ref="I13:I17" si="8">AVERAGE(B13:G13)</f>
+      <c r="H13" s="5">
+        <f t="shared" si="7"/>
+        <v>2.3874549326819046E-2</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" ref="J13:J17" si="8">AVERAGE(B13:G13)</f>
         <v>2.613464818942857E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5">
         <f>B11/B8</f>
         <v>1.5896073947383592E-3</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:G14" si="9">C11/C8</f>
+        <f t="shared" ref="C14:H14" si="9">C11/C8</f>
         <v>1.4314854919439627E-3</v>
       </c>
       <c r="D14" s="5">
@@ -1591,15 +2000,19 @@
         <f t="shared" si="9"/>
         <v>2.3042108017703343E-3</v>
       </c>
-      <c r="I14" s="5">
+      <c r="H14" s="5">
+        <f t="shared" si="9"/>
+        <v>1.4223943107451646E-3</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="8"/>
         <v>1.9487431528548628E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1621,10 +2034,13 @@
       <c r="G16" s="4">
         <v>97623</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>170916</v>
+      </c>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1652,15 +2068,19 @@
         <f>G16/G8</f>
         <v>3.3321083590274539E-3</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5">
+      <c r="H17" s="5">
+        <f>H16/H8</f>
+        <v>1.589556472488398E-3</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
         <f t="shared" si="8"/>
         <v>1.8420672270044694E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1669,20 +2089,191 @@
       <c r="G18" s="5">
         <v>0.35089999999999999</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <v>0.24690000000000001</v>
+      </c>
       <c r="I18" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
+        <f>G6+J14+J17</f>
+        <v>6.7908103798593319E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B4</f>
+        <v>2016</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:H25" si="11">C4</f>
+        <v>2017</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="11"/>
+        <v>2018</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="11"/>
+        <v>2019</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="11"/>
+        <v>2020</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="11"/>
+        <v>2021</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="11"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>A6</f>
+        <v>TER</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B6</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:H26" si="12">C6</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>A12</f>
+        <v>Dividend leakage</v>
+      </c>
+      <c r="B27" s="5">
+        <f>B14</f>
+        <v>1.5896073947383592E-3</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:H27" si="13">C14</f>
+        <v>1.4314854919439627E-3</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="13"/>
+        <v>1.6234853884533145E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="13"/>
+        <v>2.464362186507839E-3</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="13"/>
+        <v>2.2793076537153687E-3</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="13"/>
+        <v>2.3042108017703343E-3</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="13"/>
+        <v>1.4223943107451646E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>A16</f>
+        <v>Transaction costs</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B17</f>
+        <v>1.511478371158983E-3</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:H28" si="14">C17</f>
+        <v>2.773065068339279E-3</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="14"/>
+        <v>1.7178200730577336E-3</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="14"/>
+        <v>7.621089808274471E-4</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="14"/>
+        <v>9.5582250961592059E-4</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="14"/>
+        <v>3.3321083590274539E-3</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="14"/>
+        <v>1.589556472488398E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3">
-        <f>G6+I14+I17</f>
-        <v>6.7908103798593319E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="B29" s="3">
+        <f>SUM(B26:B28)</f>
+        <v>6.1010857658973421E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29:H29" si="15">SUM(C26:C28)</f>
+        <v>7.2045505602832422E-3</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.3413054615110483E-3</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.2264711673352862E-3</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.2351301633312897E-3</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="15"/>
+        <v>8.6363191607977882E-3</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="15"/>
+        <v>6.0119507832335625E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1692,43 +2283,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458D1CFB-D8C8-403E-BC0B-3F57B3C7A83B}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C1" s="8">
         <v>2019</v>
       </c>
       <c r="D1" s="8">
         <v>2020</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11">
         <v>15.83</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10">
+        <v>21.96</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1736,11 +2333,14 @@
       <c r="D3" s="11">
         <v>16.5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="10">
+        <v>22.35</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1748,44 +2348,56 @@
       <c r="D4" s="11">
         <v>15.9</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="10">
+        <v>21.82</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11">
-        <f t="shared" ref="D5" si="0">D3-D2</f>
+        <f t="shared" ref="D5:E5" si="0">D3-D2</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12">
-        <f>AVERAGE(C5:D5)</f>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12">
+        <f>AVERAGE(D5:E5)</f>
+        <v>0.53000000000000025</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
-        <f t="shared" ref="D6" si="1">D2-D4</f>
+        <f t="shared" ref="D6:E6" si="1">D2-D4</f>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
-        <f>AVERAGE(C6:D6)</f>
-        <v>-7.0000000000000284E-2</v>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12">
+        <f>AVERAGE(D6:E6)</f>
+        <v>3.5000000000000142E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="604" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5598D28-55F8-4611-ADB8-6183A0530CAD}"/>
+  <xr:revisionPtr revIDLastSave="609" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F61C1C34-CEE2-4FEF-8E36-1ED0AB442370}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="3210" windowWidth="21915" windowHeight="16035" activeTab="2" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
+    <workbookView xWindow="8880" yWindow="3210" windowWidth="21915" windowHeight="16035" activeTab="1" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="SWRD" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>financial year ended 31 March 2020</t>
   </si>
@@ -214,10 +214,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Copy/paste</t>
-  </si>
-  <si>
     <t>Index turnover</t>
+  </si>
+  <si>
+    <t>ZPRV</t>
+  </si>
+  <si>
+    <t>ZPRX</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F1F0C-0F64-4101-9A89-7B1897C91153}">
   <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -928,8 +933,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>39</v>
+      <c r="A26" s="1" t="str">
+        <f>A2</f>
+        <v>SPDR MSCI World UCITS ETF</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="1">
@@ -1030,7 +1036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F007D5-EEB2-41AB-8623-15D282634442}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1308,7 +1316,7 @@
         <v>0.17244526963501108</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" ref="J12:J17" si="7">AVERAGE(B12:G12)</f>
+        <f t="shared" ref="J12:J13" si="7">AVERAGE(B12:G12)</f>
         <v>0.18204578251750592</v>
       </c>
     </row>
@@ -1455,7 +1463,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3">
         <v>0.20169999999999999</v>
@@ -1475,7 +1483,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1">
         <f>B4</f>
@@ -1651,7 +1659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D68207-D1C4-481F-BB33-4641CBED083B}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2080,7 +2090,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2109,7 +2119,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <f>B4</f>

--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="609" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F61C1C34-CEE2-4FEF-8E36-1ED0AB442370}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7F587E-1D6F-4C1D-BE5F-406D9C9BAAF4}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="3210" windowWidth="21915" windowHeight="16035" activeTab="1" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
+    <workbookView xWindow="23985" yWindow="2100" windowWidth="21915" windowHeight="16035" activeTab="2" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="SWRD" sheetId="2" r:id="rId1"/>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F007D5-EEB2-41AB-8623-15D282634442}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,6 +1648,10 @@
         <f t="shared" si="15"/>
         <v>6.0516879962108604E-3</v>
       </c>
+      <c r="I29" s="3">
+        <f>AVERAGE(B29:H29)</f>
+        <v>6.5860152599019678E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1659,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D68207-D1C4-481F-BB33-4641CBED083B}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,6 +2287,10 @@
       <c r="H29" s="3">
         <f t="shared" si="15"/>
         <v>6.0119507832335625E-3</v>
+      </c>
+      <c r="I29" s="3">
+        <f>AVERAGE(B29:H29)</f>
+        <v>6.6795447231985088E-3</v>
       </c>
     </row>
   </sheetData>

--- a/SPDR/spdr.xlsx
+++ b/SPDR/spdr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/SPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="611" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7F587E-1D6F-4C1D-BE5F-406D9C9BAAF4}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="8_{F0B8999D-9BF9-463A-A515-6683C4D9B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4353CEE4-DC1A-4AC7-BD02-B3C3CA580FB6}"/>
   <bookViews>
-    <workbookView xWindow="23985" yWindow="2100" windowWidth="21915" windowHeight="16035" activeTab="2" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
+    <workbookView xWindow="26445" yWindow="3750" windowWidth="24360" windowHeight="15930" activeTab="3" xr2:uid="{CB9E69B2-3CC2-4CB8-BB0A-750BABFBC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="SWRD" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{037CF0A5-8A77-4058-828B-8C964D69D56D}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{037CF0A5-8A77-4058-828B-8C964D69D56D}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D86604A5-7F37-43DE-A45A-81031088F21C}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D86604A5-7F37-43DE-A45A-81031088F21C}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>financial year ended 31 March 2020</t>
   </si>
@@ -133,12 +133,6 @@
     <t>OPNI</t>
   </si>
   <si>
-    <t>MSCI WORLD INDEX (USD) gross</t>
-  </si>
-  <si>
-    <t>MSCI WORLD INDEX (USD) NET</t>
-  </si>
-  <si>
     <t>Vs gross</t>
   </si>
   <si>
@@ -221,6 +215,18 @@
   </si>
   <si>
     <t>ZPRX</t>
+  </si>
+  <si>
+    <t>MSCI Europe Small Cap Value Weighted Gross</t>
+  </si>
+  <si>
+    <t>MSCI WORLD INDEX (USD) Gross</t>
+  </si>
+  <si>
+    <t>MSCI WORLD INDEX (USD) Net</t>
+  </si>
+  <si>
+    <t>MSCI USA Small Cap Value Weighted</t>
   </si>
 </sst>
 </file>
@@ -320,10 +326,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -342,10 +347,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -685,7 +689,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,164 +707,164 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
         <v>318392294</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>129213578</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>743807270</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1444937436</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
         <v>352819</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>453811</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1388227</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <f>AVERAGE(B7:E7)</f>
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
         <f>C6/C7</f>
         <v>294015833.33333337</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" ref="D8:E8" si="0">D6/D7</f>
         <v>378175833.33333337</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>1156855833.3333335</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1004942</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>7032455</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>7304759</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>20970311</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>135108</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>928867</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>976724</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>2665046</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13">
         <f>B11/B10</f>
         <v>0.13444357982848762</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f>C11/C10</f>
         <v>0.13208289281623559</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f t="shared" ref="D12:E12" si="1">D11/D10</f>
         <v>0.13371063987189721</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>0.12708662260659845</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
         <f>C11/C8</f>
         <v>3.1592414240729661E-3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" ref="D13:E13" si="2">D11/D8</f>
         <v>2.5827245262895785E-3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
         <v>2.3036975941254562E-3</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <f>AVERAGE(B13:E13)</f>
         <v>2.6818878481626673E-3</v>
       </c>
@@ -869,47 +873,47 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>144398</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>160137</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>196947</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>257179</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
         <f>C16/C8</f>
         <v>5.4465434117777092E-4</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" ref="D17:E17" si="3">D16/D8</f>
         <v>5.2078155884277815E-4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>2.2230859938612342E-4</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <f>AVERAGE(B17:E17)</f>
         <v>4.2924816646889083E-4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <f>G7+G13+G17</f>
         <v>4.3111360146315583E-3</v>
       </c>
@@ -918,16 +922,16 @@
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5">
-        <f>TrackingDiff!G5/100</f>
+      <c r="B21" s="4">
+        <f>TrackingDiff!K5/100</f>
         <v>5.3000000000000026E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
         <f>B20-B21</f>
         <v>-9.8886398536844437E-4</v>
       </c>
@@ -937,7 +941,7 @@
         <f>A2</f>
         <v>SPDR MSCI World UCITS ETF</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="1">
         <f>C4</f>
         <v>2020</v>
@@ -956,16 +960,16 @@
         <f>A7</f>
         <v>TER</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
         <f>C7</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f>D7</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f>E7</f>
         <v>1.1999999999999999E-3</v>
       </c>
@@ -975,16 +979,16 @@
         <f>A13</f>
         <v>% dividend leakage costs</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
         <f t="shared" ref="C28:E28" si="5">C13</f>
         <v>3.1592414240729661E-3</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="5"/>
         <v>2.5827245262895785E-3</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="5"/>
         <v>2.3036975941254562E-3</v>
       </c>
@@ -994,34 +998,34 @@
         <f>A17</f>
         <v>% transaction costs</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4">
         <f t="shared" ref="C29:E29" si="6">C17</f>
         <v>5.4465434117777092E-4</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="6"/>
         <v>5.2078155884277815E-4</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="6"/>
         <v>2.2230859938612342E-4</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
         <f t="shared" ref="C30:E30" si="7">SUM(C27:C29)</f>
         <v>4.903895765250737E-3</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f t="shared" si="7"/>
         <v>4.3035060851323564E-3</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="7"/>
         <v>3.7260061935115796E-3</v>
       </c>
@@ -1037,7 +1041,7 @@
   <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D14" sqref="D14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,34 +1051,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1100,390 +1096,390 @@
         <v>2022</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
         <v>16620593</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>77862695</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>107364502</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>35992810</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>21266136</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>209666872</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>350309639</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J6" s="3"/>
+      <c r="B6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>227317</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>130404</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>218199</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>235844</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>98531</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>249596</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>852964</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" ref="B8" si="0">B7/B6</f>
         <v>75772333.333333328</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" ref="C8" si="1">C7/C6</f>
         <v>43468000</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" ref="D8" si="2">D7/D6</f>
         <v>72733000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" ref="E8" si="3">E7/E6</f>
         <v>78614666.666666672</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" ref="F8" si="4">F7/F6</f>
         <v>32843666.666666664</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" ref="G8:H8" si="5">G7/G6</f>
         <v>83198666.666666672</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="5"/>
         <v>284321333.33333331</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1395145</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>808393</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1343927</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1458483</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>693589</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1671661</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>4896916</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
         <v>278674</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>147242</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>241813</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>271338</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>115918</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>296366</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>844450</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="19">
+        <v>27</v>
+      </c>
+      <c r="B12" s="16">
         <f>B11/B10</f>
         <v>0.19974554616186849</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <f t="shared" ref="C12:H12" si="6">C11/C10</f>
         <v>0.18214160686695705</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <f t="shared" si="6"/>
         <v>0.17993015989707775</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <f t="shared" si="6"/>
         <v>0.1860412497094584</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <f t="shared" si="6"/>
         <v>0.16712779470262648</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <f t="shared" si="6"/>
         <v>0.17728833776704728</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <f t="shared" si="6"/>
         <v>0.17244526963501108</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" ref="J12:J13" si="7">AVERAGE(B12:G12)</f>
         <v>0.18204578251750592</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4">
         <f>B10/B8</f>
         <v>1.8412327278646119E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" ref="C13:H13" si="8">C10/C8</f>
         <v>1.859742799300635E-2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="8"/>
         <v>1.8477541143634937E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="8"/>
         <v>1.8552301521344617E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="8"/>
         <v>2.1117891830997354E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="8"/>
         <v>2.0092401320533981E-2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="8"/>
         <v>1.7223174717807554E-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f t="shared" si="7"/>
         <v>1.9208315181360559E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4">
         <f>B11/B8</f>
         <v>3.6777803683842392E-3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" ref="C14:H14" si="9">C11/C8</f>
         <v>3.3873654182387043E-3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="9"/>
         <v>3.3246669324790675E-3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="9"/>
         <v>3.4514933600176385E-3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="9"/>
         <v>3.5293866904831986E-3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="9"/>
         <v>3.5621484318658953E-3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="9"/>
         <v>2.9700550081832294E-3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f>AVERAGE(B14:H14)</f>
         <v>3.4146994585217108E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15" s="3"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>20213</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>9721</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>13128</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>14984</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>3301</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>12944</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>23210</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <f>B16/B8</f>
         <v>2.6675963522305855E-4</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <f t="shared" ref="C17:H17" si="10">C16/C8</f>
         <v>2.236357780436183E-4</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <f t="shared" si="10"/>
         <v>1.8049578595685588E-4</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="17">
         <f t="shared" si="10"/>
         <v>1.9060056647614523E-4</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="17">
         <f t="shared" si="10"/>
         <v>1.0050643959769008E-4</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="17">
         <f t="shared" si="10"/>
         <v>1.5557941633680025E-4</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="17">
         <f t="shared" si="10"/>
         <v>8.1632988027630719E-5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f>AVERAGE(B17:H17)</f>
         <v>1.71315801380257E-4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="3">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2">
         <v>0.20169999999999999</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>0.28070000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2">
         <f>H6+J14+J17</f>
         <v>6.5860152599019686E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
         <f>B4</f>
@@ -1519,31 +1515,31 @@
         <f>A6</f>
         <v>TER</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>B6</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f t="shared" ref="C26:H26" si="12">C6</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1553,31 +1549,31 @@
         <f>A12</f>
         <v>Dividend leakage</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <f>B14</f>
         <v>3.6777803683842392E-3</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f t="shared" ref="C27:H27" si="13">C14</f>
         <v>3.3873654182387043E-3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="13"/>
         <v>3.3246669324790675E-3</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="13"/>
         <v>3.4514933600176385E-3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" si="13"/>
         <v>3.5293866904831986E-3</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <f t="shared" si="13"/>
         <v>3.5621484318658953E-3</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <f t="shared" si="13"/>
         <v>2.9700550081832294E-3</v>
       </c>
@@ -1587,68 +1583,68 @@
         <f>A16</f>
         <v>Transaction costs</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <f>B17</f>
         <v>2.6675963522305855E-4</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" ref="C28:H28" si="14">C17</f>
         <v>2.236357780436183E-4</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="14"/>
         <v>1.8049578595685588E-4</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="14"/>
         <v>1.9060056647614523E-4</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="14"/>
         <v>1.0050643959769008E-4</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <f t="shared" si="14"/>
         <v>1.5557941633680025E-4</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <f t="shared" si="14"/>
         <v>8.1632988027630719E-5</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
         <f>SUM(B26:B28)</f>
         <v>6.9445400036072975E-3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" ref="C29:H29" si="15">SUM(C26:C28)</f>
         <v>6.6110011962823229E-3</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="15"/>
         <v>6.5051627184359237E-3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="15"/>
         <v>6.6420939264937836E-3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="15"/>
         <v>6.6298931300808883E-3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="15"/>
         <v>6.7177278482026962E-3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="15"/>
         <v>6.0516879962108604E-3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <f>AVERAGE(B29:H29)</f>
         <v>6.5860152599019678E-3</v>
       </c>
@@ -1663,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D68207-D1C4-481F-BB33-4641CBED083B}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,35 +1671,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1730,400 +1717,400 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
         <v>29596852</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>58263370</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>73739448</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>27052766</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>14995894</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>67941530</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>116321399</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>260185</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>111283</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>179584</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>162524</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>71756</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>87893</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>322573</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" ref="B8" si="0">B7/B6</f>
         <v>86728333.333333328</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" ref="C8" si="1">C7/C6</f>
         <v>37094333.333333336</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" ref="D8" si="2">D7/D6</f>
         <v>59861333.333333328</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" ref="E8" si="3">E7/E6</f>
         <v>54174666.666666664</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" ref="F8" si="4">F7/F6</f>
         <v>23918666.666666668</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" ref="G8:H8" si="5">G7/G6</f>
         <v>29297666.666666668</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="5"/>
         <v>107524333.33333333</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2327973</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>853605</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1507051</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1857553</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>734983</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>491078</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2567095</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
         <v>137864</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>53100</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>97184</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>133506</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>54518</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>67508</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>152942</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4">
         <f>B11/B10</f>
         <v>5.9220618108543358E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:H12" si="6">C11/C10</f>
         <v>6.2206758395276507E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="6"/>
         <v>6.4486205178192382E-2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="6"/>
         <v>7.1871973504928258E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" si="6"/>
         <v>7.4175865292122403E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="6"/>
         <v>0.13746899677851585</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="6"/>
         <v>5.9577849670541992E-2</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5">
+      <c r="I12" s="3"/>
+      <c r="J12" s="4">
         <f>AVERAGE(B12:G12)</f>
         <v>7.8238402876263116E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4">
         <f>B10/B8</f>
         <v>2.6842127716816881E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" ref="C13:H13" si="7">C10/C8</f>
         <v>2.3011735844648329E-2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="7"/>
         <v>2.5175700507840345E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="7"/>
         <v>3.4288222047205337E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="7"/>
         <v>3.0728426891131054E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="7"/>
         <v>1.6761676128929492E-2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="7"/>
         <v>2.3874549326819046E-2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f t="shared" ref="J13:J17" si="8">AVERAGE(B13:G13)</f>
         <v>2.613464818942857E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4">
         <f>B11/B8</f>
         <v>1.5896073947383592E-3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" ref="C14:H14" si="9">C11/C8</f>
         <v>1.4314854919439627E-3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="9"/>
         <v>1.6234853884533145E-3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="9"/>
         <v>2.464362186507839E-3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="9"/>
         <v>2.2793076537153687E-3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="9"/>
         <v>2.3042108017703343E-3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="9"/>
         <v>1.4223943107451646E-3</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f t="shared" si="8"/>
         <v>1.9487431528548628E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15" s="4"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>131088</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>102865</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>102831</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>41287</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>22862</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>97623</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>170916</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f t="shared" ref="B17:E17" si="10">B16/B8</f>
         <v>1.511478371158983E-3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="10"/>
         <v>2.773065068339279E-3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="10"/>
         <v>1.7178200730577336E-3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" si="10"/>
         <v>7.621089808274471E-4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f>F16/F8</f>
         <v>9.5582250961592059E-4</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f>G16/G8</f>
         <v>3.3321083590274539E-3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f>H16/H8</f>
         <v>1.589556472488398E-3</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <f t="shared" si="8"/>
         <v>1.8420672270044694E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="4">
         <v>0.35089999999999999</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.24690000000000001</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2">
         <f>G6+J14+J17</f>
         <v>6.7908103798593319E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
         <f>B4</f>
@@ -2159,31 +2146,31 @@
         <f>A6</f>
         <v>TER</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>B6</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f t="shared" ref="C26:H26" si="12">C6</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f t="shared" si="12"/>
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2193,31 +2180,31 @@
         <f>A12</f>
         <v>Dividend leakage</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <f>B14</f>
         <v>1.5896073947383592E-3</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f t="shared" ref="C27:H27" si="13">C14</f>
         <v>1.4314854919439627E-3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="13"/>
         <v>1.6234853884533145E-3</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="13"/>
         <v>2.464362186507839E-3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" si="13"/>
         <v>2.2793076537153687E-3</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <f t="shared" si="13"/>
         <v>2.3042108017703343E-3</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <f t="shared" si="13"/>
         <v>1.4223943107451646E-3</v>
       </c>
@@ -2227,68 +2214,68 @@
         <f>A16</f>
         <v>Transaction costs</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <f>B17</f>
         <v>1.511478371158983E-3</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" ref="C28:H28" si="14">C17</f>
         <v>2.773065068339279E-3</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="14"/>
         <v>1.7178200730577336E-3</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="14"/>
         <v>7.621089808274471E-4</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="14"/>
         <v>9.5582250961592059E-4</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <f t="shared" si="14"/>
         <v>3.3321083590274539E-3</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <f t="shared" si="14"/>
         <v>1.589556472488398E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
         <f>SUM(B26:B28)</f>
         <v>6.1010857658973421E-3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" ref="C29:H29" si="15">SUM(C26:C28)</f>
         <v>7.2045505602832422E-3</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="15"/>
         <v>6.3413054615110483E-3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="15"/>
         <v>6.2264711673352862E-3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="15"/>
         <v>6.2351301633312897E-3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="15"/>
         <v>8.6363191607977882E-3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="15"/>
         <v>6.0119507832335625E-3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <f>AVERAGE(B29:H29)</f>
         <v>6.6795447231985088E-3</v>
       </c>
@@ -2301,116 +2288,337 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458D1CFB-D8C8-403E-BC0B-3F57B3C7A83B}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="8">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="7">
         <v>2019</v>
       </c>
-      <c r="D1" s="8">
+      <c r="G1" s="7">
         <v>2020</v>
       </c>
-      <c r="E1" s="9">
+      <c r="H1" s="8">
         <v>2021</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="8">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
         <v>15.83</v>
       </c>
-      <c r="E2" s="10">
+      <c r="H2" s="9">
         <v>21.96</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>22.35</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10">
+        <v>15.9</v>
+      </c>
+      <c r="H4" s="9">
+        <v>21.82</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
-        <v>16.5</v>
-      </c>
-      <c r="E3" s="10">
-        <v>22.35</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11">
-        <v>15.9</v>
-      </c>
-      <c r="E4" s="10">
-        <v>21.82</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
-        <f t="shared" ref="D5:E5" si="0">D3-D2</f>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:H5" si="0">G3-G2</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="E5" s="11">
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>0.39000000000000057</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12">
-        <f>AVERAGE(D5:E5)</f>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11">
+        <f>AVERAGE(G5:H5)</f>
         <v>0.53000000000000025</v>
       </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
-        <f t="shared" ref="D6:E6" si="1">D2-D4</f>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <f t="shared" ref="G6:H6" si="1">G2-G4</f>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>0.14000000000000057</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12">
-        <f>AVERAGE(D6:E6)</f>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
+        <f>AVERAGE(G6:H6)</f>
         <v>3.5000000000000142E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="18">
+        <v>25.83</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E9" s="18">
+        <v>-14.31</v>
+      </c>
+      <c r="F9" s="18">
+        <v>23.8</v>
+      </c>
+      <c r="G9" s="18">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="H9" s="18">
+        <v>35.4</v>
+      </c>
+      <c r="I9" s="18">
+        <v>-10.23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>27.3</v>
+      </c>
+      <c r="D10">
+        <v>9.92</v>
+      </c>
+      <c r="E10">
+        <v>-13.84</v>
+      </c>
+      <c r="F10">
+        <v>24.99</v>
+      </c>
+      <c r="G10">
+        <v>9.67</v>
+      </c>
+      <c r="H10">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="I10">
+        <v>-9.67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" ref="C11:H11" si="2">C10-C9</f>
+        <v>1.4700000000000024</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="2"/>
+        <v>1.1899999999999977</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2099999999999991</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.98000000000000398</v>
+      </c>
+      <c r="I11" s="18">
+        <f>I10-I9</f>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="K11" s="18">
+        <f>AVERAGE(C11:I11)</f>
+        <v>0.91857142857142926</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>3.99</v>
+      </c>
+      <c r="D15">
+        <v>13.01</v>
+      </c>
+      <c r="E15">
+        <v>-18.170000000000002</v>
+      </c>
+      <c r="F15">
+        <v>26.95</v>
+      </c>
+      <c r="G15">
+        <v>-3.5</v>
+      </c>
+      <c r="H15">
+        <v>28.3</v>
+      </c>
+      <c r="I15">
+        <v>-14.27</v>
+      </c>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>4.33</v>
+      </c>
+      <c r="D16">
+        <v>14.57</v>
+      </c>
+      <c r="E16">
+        <v>-17.84</v>
+      </c>
+      <c r="F16">
+        <v>27.3</v>
+      </c>
+      <c r="G16">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="H16">
+        <v>29.44</v>
+      </c>
+      <c r="I16">
+        <v>-14.06</v>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" ref="C17" si="3">C16-C15</f>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" ref="D17" si="4">D16-D15</f>
+        <v>1.5600000000000005</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" ref="C17:H17" si="5">E16-E15</f>
+        <v>0.33000000000000185</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="5"/>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="5"/>
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="I17" s="18">
+        <f>I16-I15</f>
+        <v>0.20999999999999908</v>
+      </c>
+      <c r="K17" s="18">
+        <f>AVERAGE(C17:I17)</f>
+        <v>0.69714285714285762</v>
       </c>
     </row>
   </sheetData>
